--- a/1/DD_Summary.xlsx
+++ b/1/DD_Summary.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="120">
   <si>
     <t>Split type</t>
   </si>
@@ -66,96 +66,6 @@
     <t>Real bottom section trays number</t>
   </si>
   <si>
-    <t>Tray # 1</t>
-  </si>
-  <si>
-    <t>Tray # 2</t>
-  </si>
-  <si>
-    <t>Tray # 3</t>
-  </si>
-  <si>
-    <t>Tray # 4</t>
-  </si>
-  <si>
-    <t>Tray # 5</t>
-  </si>
-  <si>
-    <t>Tray # 6</t>
-  </si>
-  <si>
-    <t>Tray # 7</t>
-  </si>
-  <si>
-    <t>Tray # 8</t>
-  </si>
-  <si>
-    <t>Tray # 9</t>
-  </si>
-  <si>
-    <t>Tray # 10</t>
-  </si>
-  <si>
-    <t>Tray # 11</t>
-  </si>
-  <si>
-    <t>Tray # 12</t>
-  </si>
-  <si>
-    <t>Tray # 13</t>
-  </si>
-  <si>
-    <t>Tray # 14</t>
-  </si>
-  <si>
-    <t>Tray # 15</t>
-  </si>
-  <si>
-    <t>Tray # 16</t>
-  </si>
-  <si>
-    <t>Tray # 17</t>
-  </si>
-  <si>
-    <t>Tray # 18</t>
-  </si>
-  <si>
-    <t>Tray # 19</t>
-  </si>
-  <si>
-    <t>Tray # 20</t>
-  </si>
-  <si>
-    <t>Tray # 21</t>
-  </si>
-  <si>
-    <t>Tray # 22</t>
-  </si>
-  <si>
-    <t>Tray # 23</t>
-  </si>
-  <si>
-    <t>Tray # 24</t>
-  </si>
-  <si>
-    <t>Tray # 25</t>
-  </si>
-  <si>
-    <t>Tray # 26</t>
-  </si>
-  <si>
-    <t>Tray # 27</t>
-  </si>
-  <si>
-    <t>Tray # 28</t>
-  </si>
-  <si>
-    <t>Tray # 29</t>
-  </si>
-  <si>
-    <t>Tray # 30</t>
-  </si>
-  <si>
     <t>1-2.txt</t>
   </si>
   <si>
@@ -309,6 +219,18 @@
     <t>0.404</t>
   </si>
   <si>
+    <t>Tray# 1</t>
+  </si>
+  <si>
+    <t>Tray# 2</t>
+  </si>
+  <si>
+    <t>Tray# 3</t>
+  </si>
+  <si>
+    <t>Tray# 4</t>
+  </si>
+  <si>
     <t xml:space="preserve">345.89 </t>
   </si>
   <si>
@@ -448,6 +370,12 @@
   </si>
   <si>
     <t xml:space="preserve">390. </t>
+  </si>
+  <si>
+    <t>Tray# 5</t>
+  </si>
+  <si>
+    <t>Tray# 6</t>
   </si>
 </sst>
 </file>
@@ -787,10 +715,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -798,10 +726,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -809,10 +737,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -820,10 +748,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -831,10 +759,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -842,10 +770,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -853,10 +781,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -864,10 +792,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -875,10 +803,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -886,10 +814,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -897,10 +825,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -908,10 +836,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -919,10 +847,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -930,10 +858,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -971,90 +899,90 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1064,7 +992,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1072,267 +1000,137 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="B2" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G2" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="H3" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="I3" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="J3" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="K3" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F5" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="E6" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="F6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1342,7 +1140,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1350,303 +1148,207 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="B2" t="s">
-        <v>76</v>
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" t="s">
+        <v>50</v>
       </c>
       <c r="G2" t="s">
-        <v>76</v>
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" t="s">
         <v>97</v>
       </c>
-      <c r="C3" t="s">
+      <c r="I3" t="s">
         <v>98</v>
       </c>
-      <c r="D3" t="s">
+      <c r="J3" t="s">
         <v>99</v>
       </c>
-      <c r="E3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G3" t="s">
-        <v>122</v>
-      </c>
-      <c r="H3" t="s">
-        <v>123</v>
-      </c>
-      <c r="I3" t="s">
-        <v>124</v>
-      </c>
-      <c r="J3" t="s">
-        <v>125</v>
-      </c>
       <c r="K3" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I4" t="s">
         <v>102</v>
       </c>
-      <c r="C4" t="s">
+      <c r="J4" t="s">
         <v>103</v>
       </c>
-      <c r="D4" t="s">
+      <c r="K4" t="s">
         <v>104</v>
-      </c>
-      <c r="E4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G4" t="s">
-        <v>126</v>
-      </c>
-      <c r="H4" t="s">
-        <v>127</v>
-      </c>
-      <c r="I4" t="s">
-        <v>128</v>
-      </c>
-      <c r="J4" t="s">
-        <v>129</v>
-      </c>
-      <c r="K4" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I5" t="s">
         <v>107</v>
       </c>
-      <c r="C5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5" t="s">
-        <v>131</v>
-      </c>
-      <c r="H5" t="s">
-        <v>132</v>
-      </c>
-      <c r="I5" t="s">
-        <v>133</v>
-      </c>
       <c r="J5" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="K5" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="G6" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="H6" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="I6" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="J6" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="K6" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="G7" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="H7" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="J7" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="K7" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="G8" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="H8" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="I8" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="J8" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="K8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/1/DD_Summary.xlsx
+++ b/1/DD_Summary.xlsx
@@ -66,7 +66,7 @@
     <t>Real bottom section trays number</t>
   </si>
   <si>
-    <t>1-2.txt</t>
+    <t>1-2</t>
   </si>
   <si>
     <t>indirect split</t>
@@ -264,7 +264,7 @@
     <t xml:space="preserve">379.16 </t>
   </si>
   <si>
-    <t>1-4.txt</t>
+    <t>1-4</t>
   </si>
   <si>
     <t>0.00</t>
